--- a/inputs/input_liquor.xlsx
+++ b/inputs/input_liquor.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jattal\OneDrive - AGLC\Desktop\GITHUB_PROJECTS\sales_forecasting\inputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aglc-my.sharepoint.com/personal/jaskaran_attal_aglc_ca/Documents/Desktop/GITHUB_PROJECTS/sales_forecasting/inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{733339EB-FB5C-4590-A31C-944805CE05B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{733339EB-FB5C-4590-A31C-944805CE05B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{79D0D845-CFB5-4E67-9ACF-45D22CA40570}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{09B60C06-469B-4B52-A5BA-179A906ACFF2}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>sno</t>
   </si>
@@ -72,9 +72,6 @@
   </si>
   <si>
     <t>tuning</t>
-  </si>
-  <si>
-    <t>Liquor Oct with correct naming convention</t>
   </si>
   <si>
     <t>Testing_Sales</t>
@@ -113,12 +110,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -453,10 +447,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5F4A3D2-C956-4274-8D78-E9BB60905417}">
-  <dimension ref="A1:L33"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -512,7 +506,7 @@
         <v>45931</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D2" s="1">
         <v>45292</v>
@@ -540,161 +534,6 @@
       </c>
       <c r="L2">
         <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B3" s="1"/>
-      <c r="D3" s="1"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B4" s="1"/>
-      <c r="D4" s="1"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B5" s="1"/>
-      <c r="D5" s="1"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B6" s="1"/>
-      <c r="D6" s="1"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B7" s="1"/>
-      <c r="D7" s="1"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B8" s="1"/>
-      <c r="D8" s="1"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B9" s="1"/>
-      <c r="D9" s="1"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B10" s="1"/>
-      <c r="D10" s="1"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B11" s="1"/>
-      <c r="D11" s="1"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B12" s="2"/>
-      <c r="D12" s="1"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B13" s="2"/>
-      <c r="D13" s="1"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B14" s="2"/>
-      <c r="D14" s="1"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B15" s="3"/>
-      <c r="D15" s="1"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B16" s="3"/>
-      <c r="D16" s="1"/>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B17" s="3"/>
-      <c r="D17" s="1"/>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B18" s="3"/>
-      <c r="D18" s="1"/>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B19" s="3"/>
-      <c r="D19" s="1"/>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B20" s="3"/>
-      <c r="D20" s="1"/>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B21" s="3"/>
-      <c r="D21" s="1"/>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B22" s="4"/>
-      <c r="D22" s="1"/>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B23" s="4"/>
-      <c r="D23" s="1"/>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B24" s="4"/>
-      <c r="D24" s="1"/>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B25" s="3"/>
-      <c r="D25" s="1"/>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B26" s="3"/>
-      <c r="D26" s="1"/>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B27" s="4"/>
-      <c r="D27" s="1"/>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B28" s="4"/>
-      <c r="D28" s="1"/>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B29" s="4"/>
-      <c r="D29" s="1"/>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B30" s="4"/>
-      <c r="D30" s="1"/>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B31" s="4"/>
-      <c r="D31" s="1"/>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B32" s="4"/>
-      <c r="D32" s="1"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B33" s="4">
-        <v>45938</v>
-      </c>
-      <c r="C33" t="s">
-        <v>12</v>
-      </c>
-      <c r="D33" s="1">
-        <v>45901</v>
-      </c>
-      <c r="E33">
-        <v>6</v>
-      </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
-      <c r="G33">
-        <v>1</v>
-      </c>
-      <c r="H33">
-        <v>1</v>
-      </c>
-      <c r="I33">
-        <v>1</v>
-      </c>
-      <c r="J33">
-        <v>1</v>
-      </c>
-      <c r="K33">
-        <v>1</v>
-      </c>
-      <c r="L33">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
